--- a/distribuicao_pareceres.xlsx
+++ b/distribuicao_pareceres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7c02c31a145930/Profissional/UFAM/_Ensino/PPGCiMH/2025_2/Ética/Comitê de Ética/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{E57D3C0B-0E93-4104-AEC4-2AF877EE5734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EED95015-7FA1-4D4C-814A-CEEABBB9CCF9}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{E57D3C0B-0E93-4104-AEC4-2AF877EE5734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F74D9A9E-C4A8-464A-B32E-20C278B871BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="80">
   <si>
     <t>Aluno (Avaliador)</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>Yan_Carlos_Souza_da_Silva.pdf</t>
+  </si>
+  <si>
+    <t>Ailton_Serrão_Esquerdo.pdf</t>
+  </si>
+  <si>
+    <t>Alessandra_Freixo_Braga.pdf</t>
+  </si>
+  <si>
+    <t>Harodo_André_bastos_da_Silva.pdf</t>
   </si>
 </sst>
 </file>
@@ -294,18 +303,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,7 +625,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +638,7 @@
     <col min="6" max="6" width="42.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -652,672 +660,681 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
+      <c r="F9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" t="s">
-        <v>65</v>
+      <c r="F24" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
-    <sortCondition ref="D2:D35"/>
+    <sortCondition ref="A2:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/distribuicao_pareceres.xlsx
+++ b/distribuicao_pareceres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7c02c31a145930/Profissional/UFAM/_Ensino/PPGCiMH/2025_2/Ética/Comitê de Ética/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{E57D3C0B-0E93-4104-AEC4-2AF877EE5734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F74D9A9E-C4A8-464A-B32E-20C278B871BE}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{E57D3C0B-0E93-4104-AEC4-2AF877EE5734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA91CCB7-DC5A-43C2-967A-DF71EDC18F70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
   <si>
     <t>Aluno (Avaliador)</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Isidoro José de Souto Dantas</t>
-  </si>
-  <si>
-    <t>Izabel Pereira Garcia de Freitas</t>
   </si>
   <si>
     <t>Esporte</t>
@@ -622,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,19 +660,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,19 +680,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,19 +700,19 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,19 +740,19 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,19 +760,19 @@
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,19 +780,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,19 +800,19 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,19 +820,19 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -843,19 +840,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -863,19 +860,19 @@
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,19 +880,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,19 +900,19 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,19 +920,19 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,19 +940,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,16 +960,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,261 +980,264 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>78</v>
+      <c r="F20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>41</v>
@@ -1243,98 +1246,78 @@
         <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
-    <sortCondition ref="A2:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
